--- a/biology/Botanique/Filicophyta_(classification_phylogénétique)/Filicophyta_(classification_phylogénétique).xlsx
+++ b/biology/Botanique/Filicophyta_(classification_phylogénétique)/Filicophyta_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Filicophyta_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Filicophyta_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre phylogénétique des Filicophyta (Polypodiopsida, Polypodiidae, Leptosporangiatae, Filicophytes ou Fougères leptosporangiées) est le cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa). Il subsiste néanmoins certains désaccords concernant plusieurs relations de parenté.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Filicophyta_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Filicophyta_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
